--- a/Keyboard_Bottom/Project Outputs for Keyboard_Bottom/BOM/Bill of Materials-Keyboard_Bottom.xlsx
+++ b/Keyboard_Bottom/Project Outputs for Keyboard_Bottom/BOM/Bill of Materials-Keyboard_Bottom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\college\osu_keyboard\Keyboard_Bottom\Project Outputs for Keyboard_Bottom\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8AAEAB1-D1B3-4487-A69D-05699ED9898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3317263B-60C2-4CFB-90EC-F3CB79C5C7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{ACB29C3A-C1C6-4DB0-90D3-B21D99120012}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{65D7688D-1A56-4B04-9BE5-1F4B11C6195E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Keyboard_Bott" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>Comment</t>
   </si>
@@ -66,7 +66,7 @@
     <t>RAD-0.3</t>
   </si>
   <si>
-    <t>100pF</t>
+    <t>100nF</t>
   </si>
   <si>
     <t>C5, C6</t>
@@ -153,16 +153,28 @@
     <t>HDR1X5H</t>
   </si>
   <si>
+    <t>2N4401RLRAG</t>
+  </si>
+  <si>
+    <t>General Purpose Transistor, NPN Silicon, 3-Pin TO-92, Pb-Free, Tape and Reel</t>
+  </si>
+  <si>
+    <t>Q1, Q3, Q4, Q5, Q7, Q8, Q9, Q11, Q12</t>
+  </si>
+  <si>
+    <t>ONSC-TO-92-3-29-11_AM_BL</t>
+  </si>
+  <si>
+    <t>CMP-1048-01482-1</t>
+  </si>
+  <si>
     <t>2N5087RLRAG</t>
   </si>
   <si>
     <t>Amplifier Transistor, PNP Silicon, 3-Pin TO-92, Pb-Free, Tape and Reel</t>
   </si>
   <si>
-    <t>Q1, Q2, Q3, Q4, Q5, Q6, Q7, Q8, Q9, Q10, Q11, Q12</t>
-  </si>
-  <si>
-    <t>ONSC-TO-92-3-29-11_AM_BL</t>
+    <t>Q2, Q6, Q10</t>
   </si>
   <si>
     <t>CMP-1048-01483-1</t>
@@ -589,8 +601,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F02D5E-4728-4D8E-8D07-6E43D3D14AF2}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEF8DC6-F2C7-4831-8072-152267160925}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,7 +835,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -839,111 +851,133 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G11" s="1">
-        <v>7</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1">
         <v>4</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="1">
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Keyboard_Bottom/Project Outputs for Keyboard_Bottom/BOM/Bill of Materials-Keyboard_Bottom.xlsx
+++ b/Keyboard_Bottom/Project Outputs for Keyboard_Bottom/BOM/Bill of Materials-Keyboard_Bottom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\college\osu_keyboard\Keyboard_Bottom\Project Outputs for Keyboard_Bottom\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3317263B-60C2-4CFB-90EC-F3CB79C5C7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D400CA3-B2CA-435D-94B8-D3712DDD63AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{65D7688D-1A56-4B04-9BE5-1F4B11C6195E}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{EDE89946-E5B7-4613-A8DD-FB142B6D1B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Keyboard_Bott" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEF8DC6-F2C7-4831-8072-152267160925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F496DA-59DF-416C-A592-6CB295498164}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
